--- a/data/Decentralized/Fees_ETH_BTC.xlsx
+++ b/data/Decentralized/Fees_ETH_BTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\workspace\FinancialBigData course\Transaction-Cost-Analysis-in-High-Frequency-Trading\data\Decentralized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E84EE3-4B11-4CDB-B7DA-09D9B4163EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C0558-9D2D-47C0-B22D-8A48BBCE03B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,103 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>2021-07-04</t>
-  </si>
-  <si>
-    <t>2021-07-05</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>2021-07-07</t>
-  </si>
-  <si>
-    <t>2021-07-08</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>2021-07-10</t>
-  </si>
-  <si>
-    <t>2021-07-11</t>
-  </si>
-  <si>
-    <t>2021-07-12</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>2021-07-14</t>
-  </si>
-  <si>
-    <t>2021-07-15</t>
-  </si>
-  <si>
-    <t>2021-07-16</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>2021-07-18</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>26,93</t>
-  </si>
-  <si>
-    <t>13,07</t>
-  </si>
-  <si>
-    <t>5,92</t>
-  </si>
-  <si>
-    <t>3,18</t>
-  </si>
-  <si>
-    <t>3,08</t>
-  </si>
-  <si>
-    <t>4,93</t>
-  </si>
-  <si>
-    <t>0,26</t>
-  </si>
-  <si>
-    <t>0,11</t>
-  </si>
-  <si>
-    <t>0,92</t>
-  </si>
-  <si>
-    <t>4,12</t>
-  </si>
-  <si>
-    <t>1,08</t>
-  </si>
-  <si>
-    <t>0,41</t>
-  </si>
-  <si>
-    <t>0,67</t>
-  </si>
-  <si>
-    <t>0,62</t>
-  </si>
-  <si>
-    <t>0,57</t>
-  </si>
-  <si>
-    <t>2,02</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +29,51 @@
   </si>
   <si>
     <t>BTC(satoshi/byte)</t>
+  </si>
+  <si>
+    <t>131,16</t>
+  </si>
+  <si>
+    <t>128,23</t>
+  </si>
+  <si>
+    <t>144,81</t>
+  </si>
+  <si>
+    <t>136,98</t>
+  </si>
+  <si>
+    <t>121,93</t>
+  </si>
+  <si>
+    <t>107,83</t>
+  </si>
+  <si>
+    <t>117,28</t>
+  </si>
+  <si>
+    <t>131,48</t>
+  </si>
+  <si>
+    <t>141,52</t>
+  </si>
+  <si>
+    <t>149,67</t>
+  </si>
+  <si>
+    <t>190,21</t>
+  </si>
+  <si>
+    <t>202,74</t>
+  </si>
+  <si>
+    <t>203,75</t>
+  </si>
+  <si>
+    <t>Cardano(ADA)</t>
+  </si>
+  <si>
+    <t>0,1641702</t>
   </si>
 </sst>
 </file>
@@ -146,10 +95,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,13 +132,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -202,12 +144,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,206 +453,225 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>16413877925</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44293</v>
+      </c>
+      <c r="B2">
+        <v>153647677894</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20318933757</v>
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44294</v>
+      </c>
+      <c r="B3">
+        <v>124438377904</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>54871815247</v>
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44295</v>
+      </c>
+      <c r="B4">
+        <v>118854613506</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>40369381391</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44296</v>
+      </c>
+      <c r="B5">
+        <v>98446127075</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>37478388049</v>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44297</v>
+      </c>
+      <c r="B6">
+        <v>85229481055</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>30266605013</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44298</v>
+      </c>
+      <c r="B7">
+        <v>109282376325</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>18988461455</v>
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44299</v>
+      </c>
+      <c r="B8">
+        <v>120270890177</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>15796724325</v>
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44300</v>
+      </c>
+      <c r="B9">
+        <v>137756107863</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>30407815045</v>
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44301</v>
+      </c>
+      <c r="B10">
+        <v>105013545945</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>32450026038</v>
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44302</v>
+      </c>
+      <c r="B11">
+        <v>183796313660</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45974504881</v>
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44303</v>
+      </c>
+      <c r="B12">
+        <v>144966485762</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45196906108</v>
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44304</v>
+      </c>
+      <c r="B13">
+        <v>170181112745</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>42029589044</v>
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44305</v>
+      </c>
+      <c r="B14">
+        <v>195797651762</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>29976286417</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>30497194578</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>30440382000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>